--- a/src/user.xlsx
+++ b/src/user.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>passWord</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,10 @@
   </si>
   <si>
     <t>桂林电子科技大学花江校区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -395,9 +399,10 @@
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -407,8 +412,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -417,6 +425,9 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2">
+        <v>18879464521</v>
       </c>
     </row>
   </sheetData>

--- a/src/user.xlsx
+++ b/src/user.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>passWord</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,14 @@
   </si>
   <si>
     <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SunXi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -430,6 +438,20 @@
         <v>18879464521</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>18879464522</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
